--- a/Responses_Final.xlsx
+++ b/Responses_Final.xlsx
@@ -181,10 +181,10 @@
     <t xml:space="preserve">Q35_5</t>
   </si>
   <si>
-    <t xml:space="preserve">Growth_Mindset</t>
+    <t xml:space="preserve">Emotional_Intelligence</t>
   </si>
   <si>
-    <t xml:space="preserve">Emotional_Intelligence</t>
+    <t xml:space="preserve">Growth_Mindset</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
